--- a/biology/Médecine/CMC_Minière/CMC_Minière.xlsx
+++ b/biology/Médecine/CMC_Minière/CMC_Minière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CMC_Mini%C3%A8re</t>
+          <t>CMC_Minière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">9° 37′ 50″ N, 13° 36′ 28″ O
-Le Centre Médical Communal de la minère est un Centre de Santé publique de Conakry. Il est situé dans la Commune de Dixinn [1],[2].
+Le Centre Médical Communal de la minère est un Centre de Santé publique de Conakry. Il est situé dans la Commune de Dixinn ,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CMC_Mini%C3%A8re</t>
+          <t>CMC_Minière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CMC de la Minière est situe entre Hamdallaye et Bellevue du côté gauche de l'autoroute Le Prince dans la commune de dixinn[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CMC de la Minière est situe entre Hamdallaye et Bellevue du côté gauche de l'autoroute Le Prince dans la commune de dixinn.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CMC_Mini%C3%A8re</t>
+          <t>CMC_Minière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
